--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H2">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I2">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J2">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3081963333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N2">
-        <v>0.924589</v>
+        <v>0.487956</v>
       </c>
       <c r="O2">
-        <v>0.09210955608663025</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P2">
-        <v>0.09210955608663024</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q2">
-        <v>3.363175125773223</v>
+        <v>1.537832316262667</v>
       </c>
       <c r="R2">
-        <v>30.268576131959</v>
+        <v>13.840490846364</v>
       </c>
       <c r="S2">
-        <v>0.02637877384023744</v>
+        <v>0.01192264324389771</v>
       </c>
       <c r="T2">
-        <v>0.02637877384023744</v>
+        <v>0.0119226432438977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H3">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I3">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J3">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>6.621117999999999</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q3">
-        <v>24.08419239511755</v>
+        <v>20.86698233076022</v>
       </c>
       <c r="R3">
-        <v>216.757731556058</v>
+        <v>187.802840976842</v>
       </c>
       <c r="S3">
-        <v>0.188902284465341</v>
+        <v>0.1617793977115754</v>
       </c>
       <c r="T3">
-        <v>0.188902284465341</v>
+        <v>0.1617793977115754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H4">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I4">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J4">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.83074</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N4">
-        <v>2.49222</v>
+        <v>0.033305</v>
       </c>
       <c r="O4">
-        <v>0.2482803471274498</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P4">
-        <v>0.2482803471274497</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q4">
-        <v>9.065403451646668</v>
+        <v>0.1049633681994444</v>
       </c>
       <c r="R4">
-        <v>81.58863106482002</v>
+        <v>0.944670313795</v>
       </c>
       <c r="S4">
-        <v>0.07110370958351932</v>
+        <v>0.0008137693423956528</v>
       </c>
       <c r="T4">
-        <v>0.07110370958351932</v>
+        <v>0.0008137693423956525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.16042866666666</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H5">
-        <v>51.481286</v>
+        <v>28.364219</v>
       </c>
       <c r="I5">
-        <v>0.4503560825328813</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J5">
-        <v>0.4503560825328813</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3081963333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N5">
-        <v>0.924589</v>
+        <v>3.480078</v>
       </c>
       <c r="O5">
-        <v>0.09210955608663025</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P5">
-        <v>0.09210955608663024</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q5">
-        <v>5.288781193494889</v>
+        <v>10.96774383656467</v>
       </c>
       <c r="R5">
-        <v>47.59903074145399</v>
+        <v>98.709694529082</v>
       </c>
       <c r="S5">
-        <v>0.04148209884301752</v>
+        <v>0.08503170051180238</v>
       </c>
       <c r="T5">
-        <v>0.04148209884301751</v>
+        <v>0.08503170051180237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.16042866666666</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H6">
-        <v>51.481286</v>
+        <v>28.364219</v>
       </c>
       <c r="I6">
-        <v>0.4503560825328813</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J6">
-        <v>0.4503560825328813</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.207039333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N6">
-        <v>6.621117999999999</v>
+        <v>0.199555</v>
       </c>
       <c r="O6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q6">
-        <v>37.87374104419421</v>
+        <v>0.6289135247272222</v>
       </c>
       <c r="R6">
-        <v>340.8636693977479</v>
+        <v>5.660221722544999</v>
       </c>
       <c r="S6">
-        <v>0.2970594191876416</v>
+        <v>0.004875896745886938</v>
       </c>
       <c r="T6">
-        <v>0.2970594191876416</v>
+        <v>0.004875896745886937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>51.481286</v>
       </c>
       <c r="I7">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J7">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.83074</v>
+        <v>0.162652</v>
       </c>
       <c r="N7">
-        <v>2.49222</v>
+        <v>0.487956</v>
       </c>
       <c r="O7">
-        <v>0.2482803471274498</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P7">
-        <v>0.2482803471274497</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q7">
-        <v>14.25585451054667</v>
+        <v>2.791178043490666</v>
       </c>
       <c r="R7">
-        <v>128.30269059492</v>
+        <v>25.120602391416</v>
       </c>
       <c r="S7">
-        <v>0.1118145645022222</v>
+        <v>0.02163969354189042</v>
       </c>
       <c r="T7">
-        <v>0.1118145645022222</v>
+        <v>0.02163969354189042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,61 +912,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.33904</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H8">
-        <v>13.01712</v>
+        <v>51.481286</v>
       </c>
       <c r="I8">
-        <v>0.1138732076168498</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J8">
-        <v>0.1138732076168497</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3081963333333333</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N8">
-        <v>0.924589</v>
+        <v>6.621118</v>
       </c>
       <c r="O8">
-        <v>0.09210955608663025</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P8">
-        <v>0.09210955608663024</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q8">
-        <v>1.337276218186667</v>
+        <v>37.87374104419422</v>
       </c>
       <c r="R8">
-        <v>12.03548596368</v>
+        <v>340.863669397748</v>
       </c>
       <c r="S8">
-        <v>0.01048881060374871</v>
+        <v>0.2936309102146391</v>
       </c>
       <c r="T8">
-        <v>0.01048881060374871</v>
+        <v>0.293630910214639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.33904</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H9">
-        <v>13.01712</v>
+        <v>51.481286</v>
       </c>
       <c r="I9">
-        <v>0.1138732076168498</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J9">
-        <v>0.1138732076168497</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.207039333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N9">
-        <v>6.621117999999999</v>
+        <v>0.033305</v>
       </c>
       <c r="O9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q9">
-        <v>9.576431948906665</v>
+        <v>0.1905093589144444</v>
       </c>
       <c r="R9">
-        <v>86.18788754015998</v>
+        <v>1.71458423023</v>
       </c>
       <c r="S9">
-        <v>0.07511191749747342</v>
+        <v>0.001476997912542648</v>
       </c>
       <c r="T9">
-        <v>0.07511191749747342</v>
+        <v>0.001476997912542648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.33904</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H10">
-        <v>13.01712</v>
+        <v>51.481286</v>
       </c>
       <c r="I10">
-        <v>0.1138732076168498</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J10">
-        <v>0.1138732076168497</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.83074</v>
+        <v>1.160026</v>
       </c>
       <c r="N10">
-        <v>2.49222</v>
+        <v>3.480078</v>
       </c>
       <c r="O10">
-        <v>0.2482803471274498</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P10">
-        <v>0.2482803471274497</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q10">
-        <v>3.6046140896</v>
+        <v>19.90654342447866</v>
       </c>
       <c r="R10">
-        <v>32.4415268064</v>
+        <v>179.158890820308</v>
       </c>
       <c r="S10">
-        <v>0.02827247951562761</v>
+        <v>0.1543332214828282</v>
       </c>
       <c r="T10">
-        <v>0.02827247951562761</v>
+        <v>0.1543332214828282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.799827666666667</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H11">
-        <v>5.399483</v>
+        <v>51.481286</v>
       </c>
       <c r="I11">
-        <v>0.0472344457670092</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J11">
-        <v>0.0472344457670092</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3081963333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N11">
-        <v>0.924589</v>
+        <v>0.199555</v>
       </c>
       <c r="O11">
-        <v>0.09210955608663025</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P11">
-        <v>0.09210955608663024</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q11">
-        <v>0.5547002874985556</v>
+        <v>1.141483114192222</v>
       </c>
       <c r="R11">
-        <v>4.992302587487</v>
+        <v>10.27334802773</v>
       </c>
       <c r="S11">
-        <v>0.004350743831597228</v>
+        <v>0.008849791876218231</v>
       </c>
       <c r="T11">
-        <v>0.004350743831597228</v>
+        <v>0.008849791876218227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.799827666666667</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H12">
-        <v>5.399483</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I12">
-        <v>0.0472344457670092</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J12">
-        <v>0.0472344457670092</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.207039333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N12">
-        <v>6.621117999999999</v>
+        <v>0.487956</v>
       </c>
       <c r="O12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q12">
-        <v>3.972290453554888</v>
+        <v>0.4551743568773333</v>
       </c>
       <c r="R12">
-        <v>35.75061408199399</v>
+        <v>4.096569211896</v>
       </c>
       <c r="S12">
-        <v>0.03115631734400623</v>
+        <v>0.003528916263125331</v>
       </c>
       <c r="T12">
-        <v>0.03115631734400623</v>
+        <v>0.003528916263125331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.799827666666667</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H13">
-        <v>5.399483</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I13">
-        <v>0.0472344457670092</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J13">
-        <v>0.0472344457670092</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.83074</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N13">
-        <v>2.49222</v>
+        <v>6.621118</v>
       </c>
       <c r="O13">
-        <v>0.2482803471274498</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P13">
-        <v>0.2482803471274497</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q13">
-        <v>1.495188835806667</v>
+        <v>6.17630099324311</v>
       </c>
       <c r="R13">
-        <v>13.45669952226</v>
+        <v>55.58670893918799</v>
       </c>
       <c r="S13">
-        <v>0.01172738459140574</v>
+        <v>0.04788417601232871</v>
       </c>
       <c r="T13">
-        <v>0.01172738459140574</v>
+        <v>0.04788417601232869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.892394333333333</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H14">
-        <v>11.677183</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I14">
-        <v>0.1021514961941619</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J14">
-        <v>0.1021514961941619</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3081963333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N14">
-        <v>0.924589</v>
+        <v>0.033305</v>
       </c>
       <c r="O14">
-        <v>0.09210955608663025</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P14">
-        <v>0.09210955608663024</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q14">
-        <v>1.199621661420778</v>
+        <v>0.03106751829222222</v>
       </c>
       <c r="R14">
-        <v>10.796594952787</v>
+        <v>0.27960766463</v>
       </c>
       <c r="S14">
-        <v>0.009409128968029352</v>
+        <v>0.0002408630207301256</v>
       </c>
       <c r="T14">
-        <v>0.009409128968029349</v>
+        <v>0.0002408630207301255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.892394333333333</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H15">
-        <v>11.677183</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I15">
-        <v>0.1021514961941619</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J15">
-        <v>0.1021514961941619</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.207039333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N15">
-        <v>6.621117999999999</v>
+        <v>3.480078</v>
       </c>
       <c r="O15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q15">
-        <v>8.590667394510442</v>
+        <v>3.246280946505333</v>
       </c>
       <c r="R15">
-        <v>77.31600655059398</v>
+        <v>29.216528518548</v>
       </c>
       <c r="S15">
-        <v>0.06738015829145766</v>
+        <v>0.02516805583115009</v>
       </c>
       <c r="T15">
-        <v>0.06738015829145765</v>
+        <v>0.02516805583115009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.798455333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.395365999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.07826520044130514</v>
+      </c>
+      <c r="J16">
+        <v>0.07826520044130512</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.199555</v>
+      </c>
+      <c r="O16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q16">
+        <v>0.1861485846811111</v>
+      </c>
+      <c r="R16">
+        <v>1.67533726213</v>
+      </c>
+      <c r="S16">
+        <v>0.001443189313970882</v>
+      </c>
+      <c r="T16">
+        <v>0.001443189313970881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.892394333333333</v>
-      </c>
-      <c r="H16">
-        <v>11.677183</v>
-      </c>
-      <c r="I16">
-        <v>0.1021514961941619</v>
-      </c>
-      <c r="J16">
-        <v>0.1021514961941619</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.83074</v>
-      </c>
-      <c r="N16">
-        <v>2.49222</v>
-      </c>
-      <c r="O16">
-        <v>0.2482803471274498</v>
-      </c>
-      <c r="P16">
-        <v>0.2482803471274497</v>
-      </c>
-      <c r="Q16">
-        <v>3.233567668473333</v>
-      </c>
-      <c r="R16">
-        <v>29.10210901626</v>
-      </c>
-      <c r="S16">
-        <v>0.02536220893467488</v>
-      </c>
-      <c r="T16">
-        <v>0.02536220893467487</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.753969666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.261909</v>
+      </c>
+      <c r="I17">
+        <v>0.04905377116243741</v>
+      </c>
+      <c r="J17">
+        <v>0.0490537711624374</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.162652</v>
+      </c>
+      <c r="N17">
+        <v>0.487956</v>
+      </c>
+      <c r="O17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q17">
+        <v>0.2852866742226666</v>
+      </c>
+      <c r="R17">
+        <v>2.567580068004</v>
+      </c>
+      <c r="S17">
+        <v>0.002211795917555655</v>
+      </c>
+      <c r="T17">
+        <v>0.002211795917555655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.753969666666667</v>
+      </c>
+      <c r="H18">
+        <v>5.261909</v>
+      </c>
+      <c r="I18">
+        <v>0.04905377116243741</v>
+      </c>
+      <c r="J18">
+        <v>0.0490537711624374</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.621118</v>
+      </c>
+      <c r="O18">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P18">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q18">
+        <v>3.871080043806889</v>
+      </c>
+      <c r="R18">
+        <v>34.839720394262</v>
+      </c>
+      <c r="S18">
+        <v>0.03001205387791986</v>
+      </c>
+      <c r="T18">
+        <v>0.03001205387791985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.753969666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.261909</v>
+      </c>
+      <c r="I19">
+        <v>0.04905377116243741</v>
+      </c>
+      <c r="J19">
+        <v>0.0490537711624374</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.033305</v>
+      </c>
+      <c r="O19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q19">
+        <v>0.01947198658277778</v>
+      </c>
+      <c r="R19">
+        <v>0.175247879245</v>
+      </c>
+      <c r="S19">
+        <v>0.0001509641505262587</v>
+      </c>
+      <c r="T19">
+        <v>0.0001509641505262587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.753969666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.261909</v>
+      </c>
+      <c r="I20">
+        <v>0.04905377116243741</v>
+      </c>
+      <c r="J20">
+        <v>0.0490537711624374</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.160026</v>
+      </c>
+      <c r="N20">
+        <v>3.480078</v>
+      </c>
+      <c r="O20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q20">
+        <v>2.034650416544667</v>
+      </c>
+      <c r="R20">
+        <v>18.311853748902</v>
+      </c>
+      <c r="S20">
+        <v>0.01577441882705664</v>
+      </c>
+      <c r="T20">
+        <v>0.01577441882705663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.753969666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.261909</v>
+      </c>
+      <c r="I21">
+        <v>0.04905377116243741</v>
+      </c>
+      <c r="J21">
+        <v>0.0490537711624374</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.199555</v>
+      </c>
+      <c r="O21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q21">
+        <v>0.1166711389438889</v>
+      </c>
+      <c r="R21">
+        <v>1.050040250495</v>
+      </c>
+      <c r="S21">
+        <v>0.0009045383893789987</v>
+      </c>
+      <c r="T21">
+        <v>0.0009045383893789984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.588468333333334</v>
+      </c>
+      <c r="H22">
+        <v>13.765405</v>
+      </c>
+      <c r="I22">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="J22">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.162652</v>
+      </c>
+      <c r="N22">
+        <v>0.487956</v>
+      </c>
+      <c r="O22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q22">
+        <v>0.7463235513533334</v>
+      </c>
+      <c r="R22">
+        <v>6.71691196218</v>
+      </c>
+      <c r="S22">
+        <v>0.005786163649447416</v>
+      </c>
+      <c r="T22">
+        <v>0.005786163649447415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.588468333333334</v>
+      </c>
+      <c r="H23">
+        <v>13.765405</v>
+      </c>
+      <c r="I23">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="J23">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.621118</v>
+      </c>
+      <c r="O23">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P23">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q23">
+        <v>10.12693009142111</v>
+      </c>
+      <c r="R23">
+        <v>91.14237082279001</v>
+      </c>
+      <c r="S23">
+        <v>0.07851296487859967</v>
+      </c>
+      <c r="T23">
+        <v>0.07851296487859964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.588468333333334</v>
+      </c>
+      <c r="H24">
+        <v>13.765405</v>
+      </c>
+      <c r="I24">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="J24">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.033305</v>
+      </c>
+      <c r="O24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q24">
+        <v>0.05093964594722224</v>
+      </c>
+      <c r="R24">
+        <v>0.4584568135250001</v>
+      </c>
+      <c r="S24">
+        <v>0.0003949294205724414</v>
+      </c>
+      <c r="T24">
+        <v>0.0003949294205724413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.588468333333334</v>
+      </c>
+      <c r="H25">
+        <v>13.765405</v>
+      </c>
+      <c r="I25">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="J25">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.160026</v>
+      </c>
+      <c r="N25">
+        <v>3.480078</v>
+      </c>
+      <c r="O25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q25">
+        <v>5.322742566843334</v>
+      </c>
+      <c r="R25">
+        <v>47.90468310159001</v>
+      </c>
+      <c r="S25">
+        <v>0.04126663228004505</v>
+      </c>
+      <c r="T25">
+        <v>0.04126663228004505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.588468333333334</v>
+      </c>
+      <c r="H26">
+        <v>13.765405</v>
+      </c>
+      <c r="I26">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="J26">
+        <v>0.1283270058125809</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.199555</v>
+      </c>
+      <c r="O26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q26">
+        <v>0.3052172660861112</v>
+      </c>
+      <c r="R26">
+        <v>2.746955394775</v>
+      </c>
+      <c r="S26">
+        <v>0.002366315583916335</v>
+      </c>
+      <c r="T26">
+        <v>0.002366315583916334</v>
       </c>
     </row>
   </sheetData>
